--- a/biology/Zoologie/Émeraude_de_Ricord/Émeraude_de_Ricord.xlsx
+++ b/biology/Zoologie/Émeraude_de_Ricord/Émeraude_de_Ricord.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89meraude_de_Ricord</t>
+          <t>Émeraude_de_Ricord</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Riccordia ricordii
 L'Émeraude de Ricord (Riccordia ricordii, anciennement Chlorostilbon ricordii) est une espèce d’oiseaux de la famille des Trochilidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89meraude_de_Ricord</t>
+          <t>Émeraude_de_Ricord</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce mesure 10,5 à 11,5 cm pour le mâle et 9,5 à 10,5 cm pour la femelle. Sa masse est comprise entre 3,4 et 5 g.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89meraude_de_Ricord</t>
+          <t>Émeraude_de_Ricord</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de répartition comprend les Bahamas, Cuba et les Îles Turques-et-Caïques. Il peut arriver de la rencontrer aux États-Unis.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89meraude_de_Ricord</t>
+          <t>Émeraude_de_Ricord</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les habitats de cette espèce sont les forêts tropicales et subtropicales humides de basses altitudes et de montagne, les prairies de hautes altitudes mais aussi les anciennes forêts fortement dégradées.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89meraude_de_Ricord</t>
+          <t>Émeraude_de_Ricord</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce consomme le nectar des fleurs d'arbustes et d'arbres.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89meraude_de_Ricord</t>
+          <t>Émeraude_de_Ricord</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>del Hoyo J., Elliott A. &amp; Sargatal J. (1999) Handbook of the Birds of the World, Volume 5, Barn-owls to Hummingbirds. BirdLife International, Lynx Edicions, Barcelona, 759 p.</t>
         </is>
